--- a/etc/doc/단위테스트결과서/단위테스트결과서(UT-SIMUL-RESULT-03).xlsx
+++ b/etc/doc/단위테스트결과서/단위테스트결과서(UT-SIMUL-RESULT-03).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
   <si>
     <t>테스트 
 완료일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYYY-MM-DD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -286,6 +282,10 @@
   </si>
   <si>
     <t>시뮬레이션 설정이 제대로 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,9 +533,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -586,6 +583,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1018,7 +1018,7 @@
   <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1044,7 +1044,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1053,14 +1053,14 @@
         <v>11</v>
       </c>
       <c r="B3" s="22"/>
-      <c r="C3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="31" t="s">
@@ -1070,8 +1070,8 @@
         <v>18</v>
       </c>
       <c r="I3" s="22"/>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
+      <c r="J3" s="20">
+        <v>43822</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1079,14 +1079,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>45</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="32"/>
@@ -1094,8 +1094,8 @@
         <v>19</v>
       </c>
       <c r="I4" s="22"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
+      <c r="J4" s="20">
+        <v>43825</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1104,13 +1104,13 @@
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="33"/>
@@ -1118,8 +1118,8 @@
         <v>20</v>
       </c>
       <c r="I5" s="22"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
+      <c r="J5" s="20">
+        <v>43829</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="323.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -1201,172 +1201,176 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="20" t="s">
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="G11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -1424,14 +1428,14 @@
         <v>22</v>
       </c>
       <c r="B2" s="29"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1440,14 +1444,14 @@
         <v>11</v>
       </c>
       <c r="B3" s="22"/>
-      <c r="C3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="31" t="s">
@@ -1457,8 +1461,8 @@
         <v>18</v>
       </c>
       <c r="I3" s="22"/>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
+      <c r="J3" s="20">
+        <v>43822</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1466,14 +1470,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>45</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="32"/>
@@ -1481,8 +1485,8 @@
         <v>19</v>
       </c>
       <c r="I4" s="22"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
+      <c r="J4" s="20">
+        <v>43825</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1491,13 +1495,13 @@
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="33"/>
@@ -1505,8 +1509,8 @@
         <v>20</v>
       </c>
       <c r="I5" s="22"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
+      <c r="J5" s="20">
+        <v>43829</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1529,7 +1533,7 @@
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -1542,179 +1546,223 @@
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="40"/>
       <c r="C9" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
-      <c r="I9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>41</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="I10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="36"/>
       <c r="B11" s="37"/>
       <c r="C11" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="36"/>
       <c r="B12" s="37"/>
       <c r="C12" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
       <c r="B13" s="37"/>
       <c r="C13" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="I13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="36"/>
       <c r="B14" s="37"/>
       <c r="C14" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="36"/>
       <c r="B15" s="37"/>
       <c r="C15" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="I15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="36"/>
       <c r="B16" s="37"/>
       <c r="C16" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="37"/>
       <c r="C17" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="I17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="37"/>
       <c r="C18" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="I18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="36"/>
       <c r="B19" s="37"/>
       <c r="C19" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="39"/>
       <c r="C20" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="I20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -1773,8 +1821,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>43</v>
+      <c r="A1" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1789,7 +1837,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1798,14 +1846,14 @@
         <v>11</v>
       </c>
       <c r="B3" s="22"/>
-      <c r="C3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
@@ -1818,14 +1866,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>45</v>
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
@@ -1835,7 +1883,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -2736,292 +2784,292 @@
       <c r="J80" s="44"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="19"/>
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="18"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="10"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="12"/>
+      <c r="A82" s="9"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="11"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="10"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="12"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="11"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="10"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="12"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="11"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="10"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="12"/>
+      <c r="A85" s="9"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="11"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="10"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="12"/>
+      <c r="A86" s="9"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="11"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="10"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="12"/>
+      <c r="A87" s="9"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="11"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="10"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="12"/>
+      <c r="A88" s="9"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="11"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="10"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="12"/>
+      <c r="A89" s="9"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="11"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="10"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="12"/>
+      <c r="A90" s="9"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="11"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="10"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="12"/>
+      <c r="A91" s="9"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="11"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="10"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="12"/>
+      <c r="A92" s="9"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="11"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" s="10"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
-      <c r="J93" s="12"/>
+      <c r="A93" s="9"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="11"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" s="10"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="12"/>
+      <c r="A94" s="9"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="11"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" s="10"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="12"/>
+      <c r="A95" s="9"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="11"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" s="10"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="12"/>
+      <c r="A96" s="9"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="11"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" s="10"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="12"/>
+      <c r="A97" s="9"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="11"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" s="10"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="12"/>
+      <c r="A98" s="9"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="11"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" s="10"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="12"/>
+      <c r="A99" s="9"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="11"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" s="10"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="12"/>
+      <c r="A100" s="9"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="11"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" s="10"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
-      <c r="J101" s="12"/>
+      <c r="A101" s="9"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="11"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="10"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="12"/>
+      <c r="A102" s="9"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="11"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A103" s="10"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
-      <c r="J103" s="12"/>
+      <c r="A103" s="9"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="11"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" s="13"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="15"/>
+      <c r="A104" s="12"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="15">
